--- a/biology/Botanique/Classification_des_érables/Classification_des_érables.xlsx
+++ b/biology/Botanique/Classification_des_érables/Classification_des_érables.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:H30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Classification_des_%C3%A9rables</t>
+          <t>Classification_des_érables</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Il existe plus de 100 espèces d'érables à travers le monde. Ces différentes espèces sont décomposées en 16 sections.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Classification_des_%C3%A9rables</t>
+          <t>Classification_des_érables</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -513,46 +525,124 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Série Parviflora
-Acer nipponicum
-Série Distyla
-Acer distylum
-Série Caudata
-Acer caudatum
+          <t>Série Parviflora</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Acer nipponicum</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Section Parviflora</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Série Distyla</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Acer distylum</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Section Parviflora</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Série Caudata</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Acer caudatum
 Acer caudatum ssp multiserratum
 Acer caudatum ssp ukurunduense
 Acer spicatum</t>
         </is>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
         <is>
           <t>Section Palmata</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Série Palmata
-Acer amoenum
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Série Palmata</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Acer amoenum
 Acer amoenum var. amoenum
 Acer amoenum var. matsumurae
 Acer amoenum var. nambunum
@@ -569,9 +659,43 @@
 Acer robustum
 Acer shirasawanum
 Acer shirasawanum var. tenuifolium
-Acer sieboldianum
-Série Sinensia
-Acer calcaratum
+Acer sieboldianum</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Section Palmata</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Série Sinensia</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Acer calcaratum
 Acer campbellii
 Acer campbellii ssp chekiangense
 Acer campbellii ssp flabellatum
@@ -602,9 +726,43 @@
 Acer tonkinense ssp liquidambarifolium
 Acer tutcheri
 Acer wuyuanense
-Acer yaoshanicum
-Série Penninervia
-Acer cordatum
+Acer yaoshanicum</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Section Palmata</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Série Penninervia</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Acer cordatum
 Acer crassum
 Acer erythrantum
 Acer eucalyptoides
@@ -619,65 +777,75 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Section Wardiana</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Série Wardiana
-Acer wardii</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Série Wardiana</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Acer wardii</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
         <is>
           <t>Section Macrantha</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Série Macrantha
-Acer capillipes
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Série Macrantha</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Acer capillipes
 Acer caudatifolium
 Acer crataegifolium
 Acer davidii
@@ -701,40 +869,79 @@
         </is>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
         <is>
           <t>Section Glabra</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Série Glabra
-Acer glabrum
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Série Glabra</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Acer glabrum
 Acer glabrum ssp diffusum
 Acer glabrum ssp douglasii
 Acer glabrum ssp neomexicanum
-Acer glabrum ssp siskiyouense
-Série Arguta
-Acer acuminatum
+Acer glabrum ssp siskiyouense</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Section Glabra</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Série Arguta</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Acer acuminatum
 Acer argutum
 Acer barbinerve
 Acer stachyophyllum
@@ -742,108 +949,188 @@
         </is>
       </c>
     </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
         <is>
           <t>Section Negundo</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>Série Negundo
-Acer negundo
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Série Negundo</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t>Acer negundo
 Acer negundo ssp californicum
 Acer negundo ssp interius
-Acer negundo ssp mexicanum
-Série Cissifolia
-Acer cissifolium
+Acer negundo ssp mexicanum</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Section Negundo</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Série Cissifolia</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Acer cissifolium
 Acer henryi</t>
         </is>
       </c>
     </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
         <is>
           <t>Section Indivisa</t>
         </is>
       </c>
-      <c r="F9" t="inlineStr">
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
         <is>
           <t>Acer carpinifolium</t>
         </is>
       </c>
     </row>
-    <row r="10">
-      <c r="A10" s="1" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
         <is>
           <t>Section Acer</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>Série Acer
-Acer caesium
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Série Acer</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr"/>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Acer caesium
 Acer caesium ssp giraldii
 Acer heldreichii - Érable des Balkans
 Acer heldreichii ssp trautvetteri - Érable de Trautvetter
 Acer pseudoplatanus - Érable Sycomore
-Acer velutinum - Érable-velours
-Série Monspessulanum Pojàrkova 1933
-Acer hyrcanum - Érable de la Caspienne
+Acer velutinum - Érable-velours</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Section Acer</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Série Monspessulanum Pojàrkova 1933</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr"/>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Acer hyrcanum - Érable de la Caspienne
 Acer hyrcanum ssp intermedium
 Acer hyrcanum ssp keckianum
 Acer hyrcanum ssp reginae-amaliae
@@ -862,9 +1149,43 @@
 Acer opalus
 Acer opalus ssp hispanicum
 Acer opalus ssp obtusatum
-Acer sempervirens
-Série Saccharodendron
-Acer saccharum
+Acer sempervirens</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Section Acer</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>Série Saccharodendron</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr"/>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Acer saccharum
 Acer saccharum ssp floridanum
 Acer saccharum ssp grandidentatum
 Acer saccharum ssp leucoderme
@@ -877,36 +1198,75 @@
         </is>
       </c>
     </row>
-    <row r="11">
-      <c r="A11" s="1" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
         <is>
           <t>Section Pentaphylla</t>
         </is>
       </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>Série Pentaphylla
-Acer pentaphyllum
-Série Trifida
-Acer buergerianum
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Série Pentaphylla</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr"/>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>Acer pentaphyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Section Pentaphylla</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Série Trifida</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr"/>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>Acer buergerianum
 Acer buergerianum ssp formosanum
 Acer buergerianum ssp ningpoense
 Acer coriaceifolium
@@ -923,105 +1283,185 @@
         </is>
       </c>
     </row>
-    <row r="12">
-      <c r="A12" s="1" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
         <is>
           <t>Section Trifoliata</t>
         </is>
       </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Série Grisea
-Acer griseum
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Série Grisea</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr"/>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>Acer griseum
 Acer maximowiczianum
-Acer  triflorum
-Série  Mandshurica
-Acer mandshurica
+Acer  triflorum</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Section Trifoliata</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Série  Mandshurica</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr"/>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>Acer mandshurica
 Acer sutchuenense</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" s="1" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
         <is>
           <t>Section Lithocarpa</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>Série Lithocarpa
-Acer diabolicum
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>Série Lithocarpa</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr"/>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Acer diabolicum
 Acer leipoense
 Acer sinopurpurascens
 Acer sterculiaceum
 Acer sterculiaceum ssp franchetii
-Acer sterculiaceum ssp thomsonii
-Série Macrophylla
-Acer macrophyllum</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="n">
-        <v>12</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
+Acer sterculiaceum ssp thomsonii</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Section Lithocarpa</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>Série Macrophylla</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr"/>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Acer macrophyllum</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Section Platanoidea</t>
         </is>
       </c>
-      <c r="F14" t="inlineStr">
+      <c r="F25" t="inlineStr"/>
+      <c r="G25" t="inlineStr"/>
+      <c r="H25" t="inlineStr">
         <is>
           <t>Acer campestre
 Acer cappadocicum
@@ -1048,62 +1488,66 @@
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" s="1" t="n">
-        <v>13</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
         <is>
           <t>Section Pubescentia</t>
         </is>
       </c>
-      <c r="F15" t="inlineStr">
+      <c r="F26" t="inlineStr"/>
+      <c r="G26" t="inlineStr"/>
+      <c r="H26" t="inlineStr">
         <is>
           <t>Acer pentapomicum
 Acer pilosum</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" s="1" t="n">
-        <v>14</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
         <is>
           <t>Section Ginnala</t>
         </is>
       </c>
-      <c r="F16" t="inlineStr">
+      <c r="F27" t="inlineStr"/>
+      <c r="G27" t="inlineStr"/>
+      <c r="H27" t="inlineStr">
         <is>
           <t>Acer tataricum
 Acer tataricum ssp aidzuense
@@ -1112,31 +1556,33 @@
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" s="1" t="n">
-        <v>15</v>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
         <is>
           <t>Section Rubra</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr"/>
+      <c r="H28" t="inlineStr">
         <is>
           <t>Acer pycnanthum
 Acer rubrum
@@ -1144,62 +1590,66 @@
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" s="1" t="n">
-        <v>16</v>
-      </c>
-      <c r="B18" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C18" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
         <is>
           <t>Section Hyptiocarpa</t>
         </is>
       </c>
-      <c r="F18" t="inlineStr">
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="inlineStr"/>
+      <c r="H29" t="inlineStr">
         <is>
           <t>Acer garrettii
 Acer laurinum</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="n">
-        <v>17</v>
-      </c>
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="C19" t="inlineStr">
-        <is>
-          <t>Portail:Botanique/Articles liés</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Classification_des_érables</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Classification_des_%C3%A9rables</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
         <is>
           <t>Source</t>
         </is>
       </c>
-      <c r="F19" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr"/>
+      <c r="H30" t="inlineStr">
         <is>
           <t xml:space="preserve">Classification des érables selon Jong (1976)
 Classification établie par la Maple Society (2021)
